--- a/16_Hazwan_Lab8.xlsx
+++ b/16_Hazwan_Lab8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hazwan\Documents\GitHub\Lab08_Hazwan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE080E0-2052-4C6F-9D5D-BD7237BEAA40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90502BD-D00C-47CA-8111-342A261E5955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{56CCD269-CD0E-4828-A885-DE3F00CDC5F6}"/>
   </bookViews>
@@ -149,10 +149,10 @@
     <t>1. Type 5 in "Amount" Field 2. Click On US Toggle                 3. Click Convert</t>
   </si>
   <si>
-    <t>"Value" Field should show $3.75 USD</t>
-  </si>
-  <si>
-    <t>"Value" Field Is $3.75 USD</t>
+    <t>"Value" Field should show $3.75</t>
+  </si>
+  <si>
+    <t>"Value" Field Is $3.75</t>
   </si>
 </sst>
 </file>
@@ -593,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05346E9D-A5A4-46DB-BB75-AF094FF070CE}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
